--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Munisekhar Rangineni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Munisekhar Rangineni\work\POC\Projects\data-read\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288719E7-1061-42D7-BCE9-0A2FFB420FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E893CF91-98A0-4525-9D63-F447D7CDE60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>UserName</t>
   </si>
@@ -34,25 +34,34 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Sekhar</t>
-  </si>
-  <si>
-    <t>Gahan</t>
-  </si>
-  <si>
-    <t>Manasvi</t>
-  </si>
-  <si>
-    <t>Munna</t>
-  </si>
-  <si>
-    <t>Milky</t>
-  </si>
-  <si>
-    <t>Rangineni</t>
-  </si>
-  <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Ronald</t>
+  </si>
+  <si>
+    <t>Charlee</t>
+  </si>
+  <si>
+    <t>Lex</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
   </si>
 </sst>
 </file>
@@ -370,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,34 +397,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -427,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE1A373-39CD-43EE-9EC4-7E9B396CCED8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,18 +444,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
